--- a/EcommerceProject/src/test/resources/TestData/TestData.xlsx
+++ b/EcommerceProject/src/test/resources/TestData/TestData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F4D4AC-9DE1-4923-A876-F660B6F62501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A6ADAC-D81A-4DB2-B842-E1AB3B4324EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
-    <sheet name="Email" sheetId="3" r:id="rId3"/>
-    <sheet name="ProductDetails" sheetId="4" r:id="rId4"/>
-    <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
-    <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
+    <sheet name="AssignClaim" sheetId="8" r:id="rId3"/>
+    <sheet name="Email" sheetId="3" r:id="rId4"/>
+    <sheet name="ProductDetails" sheetId="4" r:id="rId5"/>
+    <sheet name="SearchProduct" sheetId="6" r:id="rId6"/>
+    <sheet name="AccountCreationData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>TestCases</t>
   </si>
@@ -301,6 +302,18 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Accommodation cost claim</t>
+  </si>
+  <si>
+    <t>Odis  Adalwin</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1075,6 +1088,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5B3618-B07C-499F-B594-63B0D8122AB2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1104,7 +1148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1141,7 +1185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1164,7 +1208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
